--- a/Digital loggbok/Loggbok2.0/log/Loggbok_online.xlsx
+++ b/Digital loggbok/Loggbok2.0/log/Loggbok_online.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -32,22 +32,28 @@
     <t>Anmärkning</t>
   </si>
   <si>
-    <t>2018-05-25</t>
+    <t>2018-06-04</t>
   </si>
   <si>
     <t>Philip Strive</t>
   </si>
   <si>
-    <t>19:26:40</t>
-  </si>
-  <si>
-    <t>19:26:43</t>
-  </si>
-  <si>
-    <t>19:28:42</t>
-  </si>
-  <si>
-    <t>19:28:45</t>
+    <t>20:12:57</t>
+  </si>
+  <si>
+    <t>20:13:03</t>
+  </si>
+  <si>
+    <t>20:18:45</t>
+  </si>
+  <si>
+    <t>20:18:50</t>
+  </si>
+  <si>
+    <t>20:19:18</t>
+  </si>
+  <si>
+    <t>20:19:24</t>
   </si>
 </sst>
 </file>
@@ -383,7 +389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,10 +436,66 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Digital loggbok/Loggbok2.0/log/Loggbok_online.xlsx
+++ b/Digital loggbok/Loggbok2.0/log/Loggbok_online.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>20:19:24</t>
+  </si>
+  <si>
+    <t>20:36:21</t>
+  </si>
+  <si>
+    <t>20:36:30</t>
+  </si>
+  <si>
+    <t>20:36:33</t>
+  </si>
+  <si>
+    <t>20:37:56</t>
   </si>
 </sst>
 </file>
@@ -389,7 +401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +510,62 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
